--- a/formato_cci.xlsx
+++ b/formato_cci.xlsx
@@ -86,7 +86,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,12 +96,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFB48F6A"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -134,7 +128,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -158,9 +152,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -538,19 +529,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="5" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -603,7 +597,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:10" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="3" customFormat="1" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +625,7 @@
       <c r="I5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
